--- a/electricitybil.xlsx
+++ b/electricitybil.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="111">
   <si>
     <t>https://www.bestundertaking.net/NewConnection.aspx</t>
   </si>
@@ -258,9 +258,6 @@
     <t>TC#_08</t>
   </si>
   <si>
-    <t>1.Verify User should get valide OTP in perticuar time On mono.</t>
-  </si>
-  <si>
     <t>1. user should get OTP on MoNo.</t>
   </si>
   <si>
@@ -307,13 +304,88 @@
   </si>
   <si>
     <t>1.Appearance of UI color is must be good to make eazy to user to see all content</t>
+  </si>
+  <si>
+    <t>TC#_13</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.UI  Test </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Verify that the  UI text boxes should be properly align.</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Verify User should get valide OTP in perticular time On mono.</t>
+  </si>
+  <si>
+    <t>1.UI design should have proper  alignment of Textboxes .</t>
+  </si>
+  <si>
+    <t>TC#_14</t>
+  </si>
+  <si>
+    <t>1.UI  test Verify the fonts of each UI field should be same</t>
+  </si>
+  <si>
+    <t>1.UI design include the same font for each element .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Font should be good and  must be same  for each UI elements. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC#_15 </t>
+  </si>
+  <si>
+    <t>1.After click on sumit button next page should open</t>
+  </si>
+  <si>
+    <t>1.Verify Tab validation for submit button</t>
+  </si>
+  <si>
+    <t>1.After click on submit button valiadtion of next link.</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.As I see  this webURL I not like the color of web UI .So there need to change the UI color </t>
+  </si>
+  <si>
+    <t>Why:- Because there are error message pop up which is also in red color .As UI color is also pink and redish.So not that much userfriendly.</t>
+  </si>
+  <si>
+    <t>2.No any link ,tab or button to upload photograph And sign of user .</t>
+  </si>
+  <si>
+    <t>3.And also fonts are also not same for text boxes.</t>
+  </si>
+  <si>
+    <t>4.Also alignment is also not good .</t>
+  </si>
+  <si>
+    <t>5.We also validate the input of text boxes by BVA ,ECP technique.</t>
+  </si>
+  <si>
+    <t>6.Also if valid user checking data stored in backend or not.</t>
+  </si>
+  <si>
+    <t>7.And with invalid input  data stored in backend or not.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,8 +513,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,6 +560,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -644,11 +743,8 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -659,9 +755,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -690,22 +783,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -805,6 +883,34 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1086,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E45" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,936 +1211,1671 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
     </row>
     <row r="8" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="24" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="34"/>
+      <c r="I11" s="27"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="32" t="s">
+      <c r="E12" s="28"/>
+      <c r="F12" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="36"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="29"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="32" t="s">
+      <c r="D13" s="30"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="36"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="29"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="36"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="36"/>
+      <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="36"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="36"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="29"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="36"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="29"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="36">
+      <c r="A19" s="25"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="36"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="29"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="32" t="s">
+      <c r="G21" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="32" t="s">
+      <c r="H21" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="36"/>
+      <c r="I21" s="29"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32" t="s">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="32" t="s">
+      <c r="E22" s="33"/>
+      <c r="F22" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="36"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="29"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="36"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="29"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="36"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="29"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="55" t="s">
+      <c r="F25" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="32" t="s">
+      <c r="G25" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="32" t="s">
+      <c r="H25" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="36"/>
+      <c r="I25" s="29"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="32" t="s">
+      <c r="A26" s="25"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="36"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="29"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="36"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="29"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="36"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="29"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="F29" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="32" t="s">
+      <c r="G29" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="32" t="s">
+      <c r="H29" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="36"/>
+      <c r="I29" s="29"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32" t="s">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="36"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="29"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="36"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="29"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="38" t="s">
+      <c r="E32" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="F32" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G32" s="32" t="s">
+      <c r="G32" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="32" t="s">
+      <c r="H32" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="I32" s="36"/>
+      <c r="I32" s="29"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="32" t="s">
+      <c r="A33" s="25"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32" t="s">
+      <c r="D33" s="32"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="36"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="29"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="36"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="29"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="38" t="s">
+      <c r="E35" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="F35" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="G35" s="32" t="s">
+      <c r="G35" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H35" s="32" t="s">
+      <c r="H35" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="36"/>
+      <c r="I35" s="29"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32" t="s">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="39"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="36"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="29"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="36"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="29"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E38" s="38" t="s">
+      <c r="E38" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F38" s="32" t="s">
+      <c r="F38" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="G38" s="32" t="s">
+      <c r="G38" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H38" s="32" t="s">
+      <c r="H38" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="I38" s="36"/>
+      <c r="I38" s="29"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="32" t="s">
+      <c r="A39" s="25"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="36"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="29"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="36"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="29"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="E41" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" s="29"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="25"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="29"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="29"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="29"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="29"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="25"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="29"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="E41" s="38" t="s">
+      <c r="D47" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F41" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G41" s="32" t="s">
+      <c r="F47" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G47" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H41" s="32" t="s">
+      <c r="H47" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="I41" s="36"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32" t="s">
+      <c r="I47" s="29"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="36"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="36"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="36"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="36"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="32"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="36"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="32" t="s">
+      <c r="D48" s="25"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="29"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="25"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="29"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B47" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="32" t="s">
+      <c r="C50" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" s="38" t="s">
+      <c r="D50" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F47" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G47" s="32" t="s">
+      <c r="F50" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="G50" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H47" s="32" t="s">
+      <c r="H50" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="I47" s="36"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32" t="s">
+      <c r="I50" s="36"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="37"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="32"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="36"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="36"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B50" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="32" t="s">
+      <c r="D51" s="25"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="41"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E50" s="38" t="s">
+      <c r="D53" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E53" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F50" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="G50" s="32" t="s">
+      <c r="F53" s="45"/>
+      <c r="G53" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H50" s="32" t="s">
+      <c r="H53" s="25"/>
+      <c r="I53" s="29"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="25"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="25"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="29"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="25"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="29"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="I50" s="43"/>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="44"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="32" t="s">
+      <c r="I56" s="29"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="25"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="48"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="44"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B53" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="32" t="s">
+      <c r="D57" s="25"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="29"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="33"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="E53" s="38" t="s">
+      <c r="D59" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E59" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="F53" s="52"/>
-      <c r="G53" s="32" t="s">
+      <c r="F59" s="56"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E62" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G62" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H53" s="32"/>
-      <c r="I53" s="36"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="32"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="32" t="s">
+      <c r="H62" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I62" s="33"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D54" s="32"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="36"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="32"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="36"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B56" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C56" s="32" t="s">
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="33"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D56" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="E56" s="38" t="s">
+      <c r="D66" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E66" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="F56" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="G56" s="32" t="s">
+      <c r="F66" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="G66" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H56" s="32" t="s">
+      <c r="H66" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="I56" s="36"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="32"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="32" t="s">
+      <c r="I66" s="33"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D57" s="32"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="36"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="33"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="33"/>
+    </row>
+    <row r="69" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A69" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="B69" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" s="59"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="33"/>
+      <c r="B70" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="C70" s="59"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="33"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="33"/>
+      <c r="B71" s="59"/>
+      <c r="C71" s="59"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="33"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="33"/>
+      <c r="B72" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" s="59"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="33"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="33"/>
+      <c r="B73" s="59"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="59"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="33"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="33"/>
+      <c r="B74" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="59"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="56"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="33"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="33"/>
+      <c r="B75" s="59"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="33"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="33"/>
+      <c r="B76" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="C76" s="59"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="33"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="33"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="56"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="33"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="33"/>
+      <c r="B78" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78" s="59"/>
+      <c r="D78" s="59"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="56"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="33"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="33"/>
+      <c r="B79" s="59"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="59"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="56"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="33"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="33"/>
+      <c r="B80" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" s="59"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="33"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="33"/>
+      <c r="B81" s="59"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="59"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="33"/>
+      <c r="B82" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="C82" s="59"/>
+      <c r="D82" s="59"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="33"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="33"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="33"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="33"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="33"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="33"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="33"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="33"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="33"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="33"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="33"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="33"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="33"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="33"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="33"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="33"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="33"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="33"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="33"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="33"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="33"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="33"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="33"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="33"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="33"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="33"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="33"/>
+      <c r="B108" s="33"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="33"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="33"/>
+      <c r="B109" s="33"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="33"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="33"/>
+      <c r="B110" s="33"/>
+      <c r="C110" s="33"/>
+      <c r="D110" s="33"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="33"/>
+      <c r="B111" s="33"/>
+      <c r="C111" s="33"/>
+      <c r="D111" s="33"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="33"/>
+      <c r="B112" s="33"/>
+      <c r="C112" s="33"/>
+      <c r="D112" s="33"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="33"/>
+      <c r="B113" s="33"/>
+      <c r="C113" s="33"/>
+      <c r="D113" s="33"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="33"/>
+      <c r="B114" s="33"/>
+      <c r="C114" s="33"/>
+      <c r="D114" s="33"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="33"/>
+      <c r="B115" s="33"/>
+      <c r="C115" s="33"/>
+      <c r="D115" s="33"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="33"/>
+      <c r="B116" s="33"/>
+      <c r="C116" s="33"/>
+      <c r="D116" s="33"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="33"/>
+      <c r="B117" s="33"/>
+      <c r="C117" s="33"/>
+      <c r="D117" s="33"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="33"/>
+      <c r="B118" s="33"/>
+      <c r="C118" s="33"/>
+      <c r="D118" s="33"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="33"/>
+      <c r="B119" s="33"/>
+      <c r="C119" s="33"/>
+      <c r="D119" s="33"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="33"/>
+      <c r="B120" s="33"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="33"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="33"/>
+      <c r="B121" s="33"/>
+      <c r="C121" s="33"/>
+      <c r="D121" s="33"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="33"/>
+      <c r="B122" s="33"/>
+      <c r="C122" s="33"/>
+      <c r="D122" s="33"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="33"/>
+      <c r="B123" s="33"/>
+      <c r="C123" s="33"/>
+      <c r="D123" s="33"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="33"/>
+      <c r="B124" s="33"/>
+      <c r="C124" s="33"/>
+      <c r="D124" s="33"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="33"/>
+      <c r="B125" s="33"/>
+      <c r="C125" s="33"/>
+      <c r="D125" s="33"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="33"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="33"/>
+      <c r="D126" s="33"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="33"/>
+      <c r="B127" s="33"/>
+      <c r="C127" s="33"/>
+      <c r="D127" s="33"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="33"/>
+      <c r="B128" s="33"/>
+      <c r="C128" s="33"/>
+      <c r="D128" s="33"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="33"/>
+      <c r="B129" s="33"/>
+      <c r="C129" s="33"/>
+      <c r="D129" s="33"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="33"/>
+      <c r="B130" s="33"/>
+      <c r="C130" s="33"/>
+      <c r="D130" s="33"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="33"/>
+      <c r="B131" s="33"/>
+      <c r="C131" s="33"/>
+      <c r="D131" s="33"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="33"/>
+      <c r="B132" s="33"/>
+      <c r="C132" s="33"/>
+      <c r="D132" s="33"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="33"/>
+      <c r="B133" s="33"/>
+      <c r="C133" s="33"/>
+      <c r="D133" s="33"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="33"/>
+      <c r="B134" s="33"/>
+      <c r="C134" s="33"/>
+      <c r="D134" s="33"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="33"/>
+      <c r="B135" s="33"/>
+      <c r="C135" s="33"/>
+      <c r="D135" s="33"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="33"/>
+      <c r="B136" s="33"/>
+      <c r="C136" s="33"/>
+      <c r="D136" s="33"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="33"/>
+      <c r="B137" s="33"/>
+      <c r="C137" s="33"/>
+      <c r="D137" s="33"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="33"/>
+      <c r="B138" s="33"/>
+      <c r="C138" s="33"/>
+      <c r="D138" s="33"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="33"/>
+      <c r="B139" s="33"/>
+      <c r="C139" s="33"/>
+      <c r="D139" s="33"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="33"/>
+      <c r="B140" s="33"/>
+      <c r="C140" s="33"/>
+      <c r="D140" s="33"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="33"/>
+      <c r="B141" s="33"/>
+      <c r="C141" s="33"/>
+      <c r="D141" s="33"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="33"/>
+      <c r="B142" s="33"/>
+      <c r="C142" s="33"/>
+      <c r="D142" s="33"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="33"/>
+      <c r="B143" s="33"/>
+      <c r="C143" s="33"/>
+      <c r="D143" s="33"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="33"/>
+      <c r="B144" s="33"/>
+      <c r="C144" s="33"/>
+      <c r="D144" s="33"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="33"/>
+      <c r="B145" s="33"/>
+      <c r="C145" s="33"/>
+      <c r="D145" s="33"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="33"/>
+      <c r="B146" s="33"/>
+      <c r="C146" s="33"/>
+      <c r="D146" s="33"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="33"/>
+      <c r="B147" s="33"/>
+      <c r="C147" s="33"/>
+      <c r="D147" s="33"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="33"/>
+      <c r="B148" s="33"/>
+      <c r="C148" s="33"/>
+      <c r="D148" s="33"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="33"/>
+      <c r="B149" s="33"/>
+      <c r="C149" s="33"/>
+      <c r="D149" s="33"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="33"/>
+      <c r="B150" s="33"/>
+      <c r="C150" s="33"/>
+      <c r="D150" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2043,5 +2884,6 @@
     <mergeCell ref="B7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>